--- a/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259257</v>
+        <v>259261</v>
       </c>
     </row>
   </sheetData>

--- a/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259261</v>
+        <v>259262</v>
       </c>
     </row>
   </sheetData>

--- a/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4273</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259262</v>
+        <v>259291</v>
       </c>
     </row>
   </sheetData>

--- a/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4275</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259291</v>
+        <v>259930</v>
       </c>
     </row>
   </sheetData>

--- a/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPORNA_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4297</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259930</v>
+        <v>274085</v>
       </c>
     </row>
   </sheetData>
